--- a/scRNAseq/AESCRNA/OUTPUT/20200612.AESCRNA.AE.BaselineTable.scRNAseq.xlsx
+++ b/scRNAseq/AESCRNA/OUTPUT/20200612.AESCRNA.AE.BaselineTable.scRNAseq.xlsx
@@ -1112,7 +1112,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
